--- a/data/xlsx/table-v.xlsx
+++ b/data/xlsx/table-v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcifuentes\Documents\Proyectos\conveyor-cema-calc\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80659E29-6EEA-4F7E-A975-5495DB3DCB9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB8B3C-BAAE-4F30-B57F-4B4D45B5C65B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{33100FD1-F0D4-4D9B-B532-07A8A3205DB3}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,6 +191,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74082483-B870-4441-94A6-D278C024323E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -529,77 +530,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.256</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>15</v>
       </c>
       <c r="B5" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.605</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>25</v>
       </c>
       <c r="B7" s="6">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.804</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>35</v>
       </c>
       <c r="B9" s="6">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>40</v>
       </c>
       <c r="B10" s="4">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45</v>
       </c>
       <c r="B11" s="8">
-        <v>0.18</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
